--- a/FMEA-results/Risk_Assment_BT.xlsx
+++ b/FMEA-results/Risk_Assment_BT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\GitHub\2024-BT-risk-assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\GitHub\2024-BT-risk-assessment\FMEA-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943D90E-7AA9-40BA-A118-36699858B29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6036A83-EB13-40D2-B328-72708D152105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{30308C7F-E94A-4FE0-B576-2764B97CB67F}"/>
   </bookViews>
@@ -838,7 +838,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,6 +923,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -949,62 +1001,25 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1017,25 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1505,7 +1501,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B29" sqref="B29"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.9" customHeight="1"/>
@@ -1543,68 +1539,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
       <c r="V1" s="2"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:32" s="11" customFormat="1" ht="15.9" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="35" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="26" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="W2" s="8"/>
@@ -1614,43 +1610,43 @@
       <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="1:32" s="15" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="34" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="13" t="s">
@@ -1677,96 +1673,89 @@
       <c r="U3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="27"/>
+      <c r="V3" s="43"/>
       <c r="W3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:32" s="23" customFormat="1" ht="84.9" customHeight="1">
-      <c r="A4" s="46">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="37">
         <v>9</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="55" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="U4" s="27"/>
       <c r="X4" s="22"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="24"/>
       <c r="AF4" s="24"/>
     </row>
     <row r="5" spans="1:32" s="23" customFormat="1" ht="84.9" customHeight="1">
-      <c r="A5" s="48">
+      <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="37">
         <v>7</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="55" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="28"/>
       <c r="O5" s="17"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -1785,34 +1774,34 @@
       <c r="AF5" s="24"/>
     </row>
     <row r="6" spans="1:32" s="23" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="55" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="37">
         <v>7</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="55" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="17"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -1828,40 +1817,40 @@
       <c r="AF6" s="24"/>
     </row>
     <row r="7" spans="1:32" s="23" customFormat="1" ht="40.799999999999997">
-      <c r="A7" s="48">
+      <c r="A7" s="39">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="37">
         <v>7</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="55" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="17"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -1877,34 +1866,34 @@
       <c r="AF7" s="24"/>
     </row>
     <row r="8" spans="1:32" s="23" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="55" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="37">
         <v>7</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="55" t="s">
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="39"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="17"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
@@ -1917,34 +1906,34 @@
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:32" s="23" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="55" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="37">
         <v>7</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="55" t="s">
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="17"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
@@ -1957,40 +1946,40 @@
       <c r="X9" s="22"/>
     </row>
     <row r="10" spans="1:32" s="23" customFormat="1" ht="40.799999999999997">
-      <c r="A10" s="48">
+      <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="37">
         <v>7</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55" t="s">
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="55" t="s">
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="39"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="17"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -2003,32 +1992,32 @@
       <c r="X10" s="22"/>
     </row>
     <row r="11" spans="1:32" s="23" customFormat="1" ht="20.399999999999999">
-      <c r="A11" s="49"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="55" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="37">
         <v>7</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="39"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="28"/>
       <c r="O11" s="17"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
@@ -2085,7 +2074,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="19">
-        <f>PRODUCT(F13,I13,K13)</f>
+        <f t="shared" ref="L13:L36" si="1">PRODUCT(F13,I13,K13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="17"/>
@@ -2120,7 +2109,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="19">
-        <f>PRODUCT(F14,I14,K14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="17"/>
@@ -2152,7 +2141,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="19">
-        <f>PRODUCT(F15,I15,K15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="17"/>
@@ -2184,7 +2173,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="19">
-        <f>PRODUCT(F16,I16,K16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="17"/>
@@ -2216,7 +2205,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="19">
-        <f>PRODUCT(F17,I17,K17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M17" s="17"/>
@@ -2248,7 +2237,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="19">
-        <f>PRODUCT(F18,I18,K18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="17"/>
@@ -2283,7 +2272,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="19">
-        <f>PRODUCT(F19,I19,K19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19" s="17"/>
@@ -2318,7 +2307,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="19">
-        <f>PRODUCT(F20,I20,K20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20" s="17"/>
@@ -2353,7 +2342,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="19">
-        <f>PRODUCT(F21,I21,K21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="17"/>
@@ -2385,7 +2374,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="19">
-        <f>PRODUCT(F22,I22,K22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="17"/>
@@ -2420,7 +2409,7 @@
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="19">
-        <f>PRODUCT(F23,I23,K23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="17"/>
@@ -2452,7 +2441,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="19">
-        <f>PRODUCT(F24,I24,K24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="17"/>
@@ -2484,7 +2473,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="19">
-        <f>PRODUCT(F25,I25,K25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="17"/>
@@ -2516,7 +2505,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="19">
-        <f>PRODUCT(F26,I26,K26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M26" s="17"/>
@@ -2551,7 +2540,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="19">
-        <f>PRODUCT(F27,I27,K27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="17"/>
@@ -2583,7 +2572,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="19">
-        <f>PRODUCT(F28,I28,K28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M28" s="17"/>
@@ -2615,7 +2604,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="19">
-        <f>PRODUCT(F29,I29,K29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M29" s="17"/>
@@ -2647,7 +2636,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="19">
-        <f>PRODUCT(F30,I30,K30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M30" s="17"/>
@@ -2679,7 +2668,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="19">
-        <f>PRODUCT(F31,I31,K31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M31" s="17"/>
@@ -2711,7 +2700,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="19">
-        <f>PRODUCT(F32,I32,K32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M32" s="17"/>
@@ -2743,7 +2732,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="19">
-        <f>PRODUCT(F33,I33,K33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M33" s="17"/>
@@ -2775,7 +2764,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="19">
-        <f>PRODUCT(F34,I34,K34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M34" s="17"/>
@@ -2807,7 +2796,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="19">
-        <f>PRODUCT(F35,I35,K35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M35" s="17"/>
@@ -2839,7 +2828,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="19">
-        <f>PRODUCT(F36,I36,K36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M36" s="17"/>
@@ -2861,10 +2850,6 @@
   </sheetData>
   <autoFilter ref="A3:AF3" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A5:A6"/>
@@ -2879,8 +2864,12 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:U2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
-  <conditionalFormatting sqref="R4:R36 F4:F36">
+  <conditionalFormatting sqref="F4:F36 R4:R36">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
